--- a/dev/1s.xlsx
+++ b/dev/1s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustav\Documents\5 Klasse\ProsjektOppgave\Code\Dream2025\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8364578-B331-46FD-8512-F5220D1D4C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10732DC2-A6FA-402F-BB79-C1345BBFD165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Results" sheetId="1" r:id="rId1"/>
@@ -710,8 +710,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G174" sqref="G174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8377,214 +8377,214 @@
     </row>
     <row r="256" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G256">
-        <f>AVERAGE(G220:G255)</f>
+        <f t="shared" ref="G256:L256" si="0">AVERAGE(G220:G255)</f>
         <v>0.61485615079365086</v>
       </c>
       <c r="H256">
-        <f>AVERAGE(H220:H255)</f>
+        <f t="shared" si="0"/>
         <v>0.46203660280049175</v>
       </c>
       <c r="I256">
-        <f>AVERAGE(I220:I255)</f>
+        <f t="shared" si="0"/>
         <v>0.64540996105232218</v>
       </c>
       <c r="J256">
-        <f>AVERAGE(J220:J255)</f>
+        <f t="shared" si="0"/>
         <v>0.67254749044679607</v>
       </c>
       <c r="K256">
-        <f>AVERAGE(K220:K255)</f>
+        <f t="shared" si="0"/>
         <v>0.46343153759820421</v>
       </c>
       <c r="L256">
-        <f>AVERAGE(L220:L255)</f>
+        <f t="shared" si="0"/>
         <v>0.61369460978835988</v>
       </c>
     </row>
-    <row r="259" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G259">
         <v>0.92291666666666683</v>
       </c>
     </row>
-    <row r="260" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G260">
         <v>0.52604166666666663</v>
       </c>
     </row>
-    <row r="261" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G261">
         <v>0.76666666666666672</v>
       </c>
     </row>
-    <row r="262" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G262">
         <v>0.420833333333333</v>
       </c>
     </row>
-    <row r="263" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G263">
         <v>0.77</v>
       </c>
     </row>
-    <row r="264" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G264">
         <v>0.7270833333333333</v>
       </c>
     </row>
-    <row r="265" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G265">
         <v>0.98750000000000004</v>
       </c>
     </row>
-    <row r="266" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G266">
         <v>0.875</v>
       </c>
     </row>
-    <row r="267" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G267">
         <v>0.71904761904761905</v>
       </c>
     </row>
-    <row r="268" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G268">
         <v>0.64444444444444449</v>
       </c>
     </row>
-    <row r="269" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G269">
         <v>0.65277777777777779</v>
       </c>
     </row>
-    <row r="270" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G270">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="271" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G271">
+    <row r="271" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H271">
         <v>0.21</v>
       </c>
     </row>
-    <row r="272" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G272">
         <v>0.59722222222222221</v>
       </c>
     </row>
-    <row r="273" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G273">
         <v>0.94166666666666676</v>
       </c>
     </row>
-    <row r="274" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G274">
         <v>0.65833333333333333</v>
       </c>
     </row>
-    <row r="275" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G275">
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="276" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G276">
+    <row r="276" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H276">
         <v>0.35833333333333328</v>
       </c>
     </row>
-    <row r="277" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G277">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="278" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G278">
         <v>0.96</v>
       </c>
     </row>
-    <row r="279" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G279">
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="280" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G280">
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="281" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G281">
         <v>0.9638888888888888</v>
       </c>
     </row>
-    <row r="282" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G282">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="283" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G283">
         <v>0.6430555555555556</v>
       </c>
     </row>
-    <row r="284" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G284">
+    <row r="284" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H284">
         <v>0.36388888888888887</v>
       </c>
     </row>
-    <row r="285" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G285">
         <v>0.7675925925925926</v>
       </c>
     </row>
-    <row r="286" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G286">
         <v>0.6</v>
       </c>
     </row>
-    <row r="287" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G287">
         <v>0.49166666666666659</v>
       </c>
     </row>
-    <row r="288" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G288">
+    <row r="288" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H288">
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="289" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G289">
         <v>0.89</v>
       </c>
     </row>
-    <row r="290" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G290">
         <v>0.99166666666666681</v>
       </c>
     </row>
-    <row r="291" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G291">
         <v>0.97708333333333319</v>
       </c>
     </row>
-    <row r="292" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G292">
+    <row r="292" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H292">
         <v>0.34166666666666667</v>
       </c>
     </row>
-    <row r="293" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G293">
         <v>0.61166666666666669</v>
       </c>
     </row>
-    <row r="294" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G294">
+    <row r="294" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H294">
         <v>0.20666666666666661</v>
       </c>
     </row>
-    <row r="295" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G295">
         <f>AVERAGE(G259:G294)</f>
-        <v>0.67254749044679596</v>
+        <v>0.74687180335097014</v>
       </c>
     </row>
   </sheetData>
